--- a/Dimitar Kolchev ®/Lesson 8/Bug Example D_Kolchev_2.xlsx
+++ b/Dimitar Kolchev ®/Lesson 8/Bug Example D_Kolchev_2.xlsx
@@ -85,9 +85,6 @@
     <t>PSB02</t>
   </si>
   <si>
-    <t>The button SHOP NOW</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Load page https://phptravels.com/demo/
 2. Click on blue button https://www.phptravels.net/
 3.Click on button "HOTELS" near  button "HOME"
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Change number from 2(default) to 1 adult</t>
+  </si>
+  <si>
+    <t>Not accepting to change number (adults)</t>
   </si>
 </sst>
 </file>
@@ -188,12 +188,6 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -205,6 +199,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,24 +567,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -592,15 +592,15 @@
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -608,47 +608,47 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -656,13 +656,13 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -670,15 +670,15 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>43404</v>
       </c>
     </row>
@@ -686,7 +686,7 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -694,12 +694,12 @@
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+      <c r="B19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
